--- a/Team-Data/2007-08/3-5-2007-08.xlsx
+++ b/Team-Data/2007-08/3-5-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" t="n">
         <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>0.417</v>
+        <v>0.424</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -687,7 +754,7 @@
         <v>79.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L2" t="n">
         <v>4.1</v>
@@ -702,10 +769,10 @@
         <v>21.4</v>
       </c>
       <c r="P2" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.775</v>
+        <v>0.777</v>
       </c>
       <c r="R2" t="n">
         <v>12.6</v>
@@ -723,7 +790,7 @@
         <v>15.5</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X2" t="n">
         <v>5.7</v>
@@ -732,19 +799,19 @@
         <v>5.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.7</v>
+        <v>-2.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
         <v>20</v>
@@ -759,7 +826,7 @@
         <v>4</v>
       </c>
       <c r="AI2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
@@ -780,7 +847,7 @@
         <v>5</v>
       </c>
       <c r="AP2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ2" t="n">
         <v>7</v>
@@ -789,10 +856,10 @@
         <v>4</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU2" t="n">
         <v>17</v>
@@ -810,7 +877,7 @@
         <v>24</v>
       </c>
       <c r="AZ2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA2" t="n">
         <v>9</v>
@@ -819,7 +886,7 @@
         <v>20</v>
       </c>
       <c r="BC2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.797</v>
+        <v>0.793</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
@@ -872,40 +939,40 @@
         <v>0.474</v>
       </c>
       <c r="L3" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N3" t="n">
         <v>0.386</v>
       </c>
       <c r="O3" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="P3" t="n">
         <v>27.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R3" t="n">
         <v>9.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T3" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U3" t="n">
         <v>22.1</v>
       </c>
       <c r="V3" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="X3" t="n">
         <v>4.4</v>
@@ -920,13 +987,13 @@
         <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
         <v>22</v>
@@ -968,16 +1035,16 @@
         <v>11</v>
       </c>
       <c r="AR3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS3" t="n">
         <v>10</v>
       </c>
       <c r="AT3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>22</v>
@@ -989,16 +1056,16 @@
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA3" t="n">
         <v>4</v>
       </c>
       <c r="BB3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -1030,58 +1097,58 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="n">
         <v>39</v>
       </c>
       <c r="G4" t="n">
-        <v>0.361</v>
+        <v>0.35</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J4" t="n">
-        <v>80.09999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L4" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M4" t="n">
         <v>17.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O4" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P4" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="Q4" t="n">
         <v>0.711</v>
       </c>
       <c r="R4" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S4" t="n">
         <v>29.4</v>
       </c>
       <c r="T4" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="U4" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V4" t="n">
         <v>14.8</v>
@@ -1096,19 +1163,19 @@
         <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.09999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5</v>
+        <v>-5.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1123,10 +1190,10 @@
         <v>2</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK4" t="n">
         <v>20</v>
@@ -1138,10 +1205,10 @@
         <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
         <v>11</v>
@@ -1150,7 +1217,7 @@
         <v>29</v>
       </c>
       <c r="AR4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS4" t="n">
         <v>26</v>
@@ -1159,7 +1226,7 @@
         <v>25</v>
       </c>
       <c r="AU4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AV4" t="n">
         <v>17</v>
@@ -1168,19 +1235,19 @@
         <v>14</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
         <v>23</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BC4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1302,10 +1369,10 @@
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1314,7 +1381,7 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM5" t="n">
         <v>24</v>
@@ -1326,10 +1393,10 @@
         <v>18</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1347,7 +1414,7 @@
         <v>16</v>
       </c>
       <c r="AW5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
         <v>8</v>
@@ -1356,16 +1423,16 @@
         <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA5" t="n">
         <v>14</v>
       </c>
       <c r="BB5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="n">
         <v>26</v>
       </c>
       <c r="G6" t="n">
-        <v>0.574</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1415,64 +1482,64 @@
         <v>82</v>
       </c>
       <c r="K6" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="N6" t="n">
-        <v>0.365</v>
+        <v>0.361</v>
       </c>
       <c r="O6" t="n">
         <v>17.9</v>
       </c>
       <c r="P6" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="Q6" t="n">
         <v>0.719</v>
       </c>
       <c r="R6" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U6" t="n">
         <v>19.7</v>
       </c>
       <c r="V6" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y6" t="n">
         <v>4.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1493,19 +1560,19 @@
         <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN6" t="n">
         <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
@@ -1517,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
         <v>5</v>
@@ -1529,7 +1596,7 @@
         <v>10</v>
       </c>
       <c r="AW6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX6" t="n">
         <v>15</v>
@@ -1541,13 +1608,13 @@
         <v>20</v>
       </c>
       <c r="BA6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB6" t="n">
         <v>16</v>
       </c>
       <c r="BC6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -1654,16 +1721,16 @@
         <v>3.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
         <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
         <v>26</v>
@@ -1675,7 +1742,7 @@
         <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL7" t="n">
         <v>20</v>
@@ -1684,7 +1751,7 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
         <v>8</v>
@@ -1705,7 +1772,7 @@
         <v>8</v>
       </c>
       <c r="AU7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
@@ -1729,7 +1796,7 @@
         <v>12</v>
       </c>
       <c r="BC7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -1758,46 +1825,46 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
         <v>24</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.593</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J8" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L8" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M8" t="n">
         <v>18.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.344</v>
+        <v>0.34</v>
       </c>
       <c r="O8" t="n">
         <v>22.9</v>
       </c>
       <c r="P8" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R8" t="n">
         <v>12.1</v>
@@ -1806,10 +1873,10 @@
         <v>32.7</v>
       </c>
       <c r="T8" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U8" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V8" t="n">
         <v>15.3</v>
@@ -1824,19 +1891,19 @@
         <v>5</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA8" t="n">
         <v>23.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.6</v>
+        <v>107.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1857,16 +1924,16 @@
         <v>3</v>
       </c>
       <c r="AK8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM8" t="n">
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
@@ -1899,10 +1966,10 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" t="n">
         <v>44</v>
       </c>
       <c r="F9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>0.721</v>
+        <v>0.733</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="J9" t="n">
         <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L9" t="n">
         <v>6.1</v>
@@ -1970,7 +2037,7 @@
         <v>16.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.374</v>
+        <v>0.376</v>
       </c>
       <c r="O9" t="n">
         <v>18.9</v>
@@ -1979,19 +2046,19 @@
         <v>24.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.762</v>
+        <v>0.763</v>
       </c>
       <c r="R9" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S9" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T9" t="n">
         <v>41.2</v>
       </c>
       <c r="U9" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V9" t="n">
         <v>11.5</v>
@@ -2006,19 +2073,19 @@
         <v>3.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA9" t="n">
         <v>20.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>98</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,13 +2100,13 @@
         <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
@@ -2048,7 +2115,7 @@
         <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
         <v>13</v>
@@ -2060,7 +2127,7 @@
         <v>13</v>
       </c>
       <c r="AR9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS9" t="n">
         <v>24</v>
@@ -2069,13 +2136,13 @@
         <v>20</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX9" t="n">
         <v>5</v>
@@ -2084,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="AZ9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA9" t="n">
         <v>22</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" t="n">
         <v>37</v>
       </c>
       <c r="F10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>0.617</v>
+        <v>0.627</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,7 +2207,7 @@
         <v>41.1</v>
       </c>
       <c r="J10" t="n">
-        <v>89.09999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="K10" t="n">
         <v>0.461</v>
@@ -2152,34 +2219,34 @@
         <v>27.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O10" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P10" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R10" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S10" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T10" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U10" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V10" t="n">
         <v>13.4</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X10" t="n">
         <v>4.6</v>
@@ -2188,31 +2255,31 @@
         <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>110.5</v>
+        <v>110.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>1</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2242,7 +2309,7 @@
         <v>18</v>
       </c>
       <c r="AR10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS10" t="n">
         <v>18</v>
@@ -2251,7 +2318,7 @@
         <v>13</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV10" t="n">
         <v>7</v>
@@ -2275,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -2304,43 +2371,43 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.667</v>
+        <v>0.661</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J11" t="n">
-        <v>81.5</v>
+        <v>81.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L11" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O11" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P11" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="Q11" t="n">
         <v>0.727</v>
@@ -2355,10 +2422,10 @@
         <v>44.6</v>
       </c>
       <c r="U11" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V11" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W11" t="n">
         <v>7.4</v>
@@ -2370,37 +2437,37 @@
         <v>4.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA11" t="n">
         <v>19.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>97.09999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>17</v>
@@ -2424,7 +2491,7 @@
         <v>22</v>
       </c>
       <c r="AR11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS11" t="n">
         <v>5</v>
@@ -2433,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV11" t="n">
         <v>13</v>
@@ -2451,13 +2518,13 @@
         <v>6</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB11" t="n">
         <v>18</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -2486,19 +2553,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
         <v>24</v>
       </c>
       <c r="F12" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" t="n">
-        <v>0.393</v>
+        <v>0.4</v>
       </c>
       <c r="H12" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I12" t="n">
         <v>37.6</v>
@@ -2507,34 +2574,34 @@
         <v>85.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L12" t="n">
         <v>9</v>
       </c>
       <c r="M12" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.369</v>
+        <v>0.366</v>
       </c>
       <c r="O12" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P12" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R12" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S12" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
         <v>22.9</v>
@@ -2546,37 +2613,37 @@
         <v>7.4</v>
       </c>
       <c r="X12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y12" t="n">
         <v>5.2</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.3</v>
+        <v>-2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>3</v>
@@ -2594,19 +2661,19 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ12" t="n">
         <v>9</v>
       </c>
       <c r="AR12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS12" t="n">
         <v>6</v>
@@ -2615,7 +2682,7 @@
         <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>27</v>
@@ -2624,7 +2691,7 @@
         <v>15</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2633,7 +2700,7 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -2668,58 +2735,58 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" t="n">
         <v>39</v>
       </c>
       <c r="G13" t="n">
-        <v>0.339</v>
+        <v>0.328</v>
       </c>
       <c r="H13" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="J13" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L13" t="n">
         <v>4.2</v>
       </c>
       <c r="M13" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="N13" t="n">
         <v>0.333</v>
       </c>
       <c r="O13" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="P13" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.787</v>
+        <v>0.788</v>
       </c>
       <c r="R13" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="S13" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T13" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U13" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V13" t="n">
         <v>14.4</v>
@@ -2728,7 +2795,7 @@
         <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y13" t="n">
         <v>5.1</v>
@@ -2737,16 +2804,16 @@
         <v>21.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>94</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-5.3</v>
+        <v>-5.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2797,7 +2864,7 @@
         <v>29</v>
       </c>
       <c r="AU13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV13" t="n">
         <v>11</v>
@@ -2806,19 +2873,19 @@
         <v>19</v>
       </c>
       <c r="AX13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
         <v>21</v>
       </c>
       <c r="BA13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB13" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BC13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2958,7 +3025,7 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2997,7 +3064,7 @@
         <v>10</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
         <v>46</v>
       </c>
       <c r="G15" t="n">
-        <v>0.246</v>
+        <v>0.233</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
@@ -3053,16 +3120,16 @@
         <v>81.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L15" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M15" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O15" t="n">
         <v>18.1</v>
@@ -3074,7 +3141,7 @@
         <v>0.734</v>
       </c>
       <c r="R15" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S15" t="n">
         <v>31.1</v>
@@ -3083,10 +3150,10 @@
         <v>41.3</v>
       </c>
       <c r="U15" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V15" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W15" t="n">
         <v>6.2</v>
@@ -3107,10 +3174,10 @@
         <v>99.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.1</v>
+        <v>-6.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
@@ -3122,13 +3189,13 @@
         <v>28</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
         <v>16</v>
@@ -3155,13 +3222,13 @@
         <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT15" t="n">
         <v>19</v>
       </c>
       <c r="AU15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV15" t="n">
         <v>28</v>
@@ -3170,22 +3237,22 @@
         <v>27</v>
       </c>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB15" t="n">
         <v>13</v>
       </c>
       <c r="BC15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -3214,67 +3281,67 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" t="n">
         <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" t="n">
-        <v>0.186</v>
+        <v>0.19</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J16" t="n">
-        <v>77.8</v>
+        <v>78</v>
       </c>
       <c r="K16" t="n">
         <v>0.455</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M16" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O16" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P16" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q16" t="n">
         <v>0.723</v>
       </c>
       <c r="R16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S16" t="n">
         <v>28.9</v>
       </c>
       <c r="T16" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="U16" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V16" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W16" t="n">
         <v>7.3</v>
       </c>
       <c r="X16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y16" t="n">
         <v>3.9</v>
@@ -3286,13 +3353,13 @@
         <v>21.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>-7.4</v>
+        <v>-7.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3322,10 +3389,10 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP16" t="n">
         <v>17</v>
@@ -3361,13 +3428,13 @@
         <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" t="n">
         <v>38</v>
       </c>
       <c r="G17" t="n">
-        <v>0.377</v>
+        <v>0.367</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J17" t="n">
-        <v>81.2</v>
+        <v>81</v>
       </c>
       <c r="K17" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L17" t="n">
         <v>5.5</v>
@@ -3426,16 +3493,16 @@
         <v>16.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O17" t="n">
         <v>17.6</v>
       </c>
       <c r="P17" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.742</v>
+        <v>0.744</v>
       </c>
       <c r="R17" t="n">
         <v>12.3</v>
@@ -3447,7 +3514,7 @@
         <v>41</v>
       </c>
       <c r="U17" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="V17" t="n">
         <v>14.6</v>
@@ -3456,7 +3523,7 @@
         <v>6.5</v>
       </c>
       <c r="X17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y17" t="n">
         <v>5.1</v>
@@ -3468,13 +3535,13 @@
         <v>20.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.3</v>
+        <v>-6.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>23</v>
@@ -3486,7 +3553,7 @@
         <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
         <v>18</v>
@@ -3498,13 +3565,13 @@
         <v>19</v>
       </c>
       <c r="AL17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM17" t="n">
         <v>22</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
         <v>25</v>
@@ -3513,7 +3580,7 @@
         <v>22</v>
       </c>
       <c r="AQ17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR17" t="n">
         <v>6</v>
@@ -3525,7 +3592,7 @@
         <v>21</v>
       </c>
       <c r="AU17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV17" t="n">
         <v>14</v>
@@ -3537,7 +3604,7 @@
         <v>19</v>
       </c>
       <c r="AY17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ17" t="n">
         <v>19</v>
@@ -3546,10 +3613,10 @@
         <v>19</v>
       </c>
       <c r="BB17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" t="n">
         <v>12</v>
       </c>
       <c r="F18" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2</v>
+        <v>0.203</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
       </c>
       <c r="I18" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J18" t="n">
-        <v>82.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L18" t="n">
         <v>5.4</v>
@@ -3608,7 +3675,7 @@
         <v>15.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.339</v>
+        <v>0.337</v>
       </c>
       <c r="O18" t="n">
         <v>14.7</v>
@@ -3620,43 +3687,43 @@
         <v>0.721</v>
       </c>
       <c r="R18" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S18" t="n">
         <v>29.5</v>
       </c>
       <c r="T18" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U18" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V18" t="n">
         <v>15.3</v>
       </c>
       <c r="W18" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X18" t="n">
         <v>3.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z18" t="n">
         <v>23.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.3</v>
+        <v>93.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.8</v>
+        <v>-7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3671,13 +3738,13 @@
         <v>28</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
@@ -3698,7 +3765,7 @@
         <v>27</v>
       </c>
       <c r="AR18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS18" t="n">
         <v>25</v>
@@ -3707,19 +3774,19 @@
         <v>18</v>
       </c>
       <c r="AU18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -3760,22 +3827,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="n">
         <v>26</v>
       </c>
       <c r="F19" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="n">
-        <v>0.426</v>
+        <v>0.433</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="J19" t="n">
         <v>78.09999999999999</v>
@@ -3784,31 +3851,31 @@
         <v>0.436</v>
       </c>
       <c r="L19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>17.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.344</v>
+        <v>0.347</v>
       </c>
       <c r="O19" t="n">
         <v>20</v>
       </c>
       <c r="P19" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.726</v>
+        <v>0.725</v>
       </c>
       <c r="R19" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S19" t="n">
         <v>31.1</v>
       </c>
       <c r="T19" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U19" t="n">
         <v>23.5</v>
@@ -3823,7 +3890,7 @@
         <v>4.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z19" t="n">
         <v>23</v>
@@ -3835,10 +3902,10 @@
         <v>94</v>
       </c>
       <c r="AC19" t="n">
-        <v>-4.9</v>
+        <v>-4.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3868,22 +3935,22 @@
         <v>17</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR19" t="n">
         <v>15</v>
       </c>
       <c r="AS19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT19" t="n">
         <v>9</v>
@@ -3907,10 +3974,10 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -3942,58 +4009,58 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.678</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J20" t="n">
-        <v>83.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="K20" t="n">
         <v>0.46</v>
       </c>
       <c r="L20" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M20" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="O20" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="P20" t="n">
         <v>20.2</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.392</v>
-      </c>
-      <c r="O20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="P20" t="n">
-        <v>20</v>
       </c>
       <c r="Q20" t="n">
         <v>0.775</v>
       </c>
       <c r="R20" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T20" t="n">
         <v>42.4</v>
       </c>
       <c r="U20" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V20" t="n">
         <v>12.2</v>
@@ -4014,13 +4081,13 @@
         <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
         <v>5</v>
@@ -4062,22 +4129,22 @@
         <v>8</v>
       </c>
       <c r="AR20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU20" t="n">
         <v>15</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>13</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX20" t="n">
         <v>28</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC20" t="n">
         <v>6</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" t="n">
         <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" t="n">
-        <v>0.295</v>
+        <v>0.3</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
@@ -4142,10 +4209,10 @@
         <v>35.2</v>
       </c>
       <c r="J21" t="n">
-        <v>80</v>
+        <v>80.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L21" t="n">
         <v>5.8</v>
@@ -4157,10 +4224,10 @@
         <v>0.335</v>
       </c>
       <c r="O21" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P21" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="Q21" t="n">
         <v>0.726</v>
@@ -4169,10 +4236,10 @@
         <v>12.2</v>
       </c>
       <c r="S21" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T21" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U21" t="n">
         <v>18.6</v>
@@ -4187,22 +4254,22 @@
         <v>2.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.4</v>
+        <v>-6.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,16 +4281,16 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
         <v>21</v>
@@ -4235,19 +4302,19 @@
         <v>28</v>
       </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP21" t="n">
         <v>10</v>
       </c>
       <c r="AQ21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT21" t="n">
         <v>16</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA21" t="n">
         <v>17</v>
@@ -4277,7 +4344,7 @@
         <v>26</v>
       </c>
       <c r="BC21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="n">
         <v>23</v>
       </c>
       <c r="G22" t="n">
-        <v>0.635</v>
+        <v>0.629</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J22" t="n">
-        <v>78.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.473</v>
+        <v>0.471</v>
       </c>
       <c r="L22" t="n">
         <v>9.300000000000001</v>
@@ -4336,16 +4403,16 @@
         <v>24.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O22" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="P22" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.727</v>
+        <v>0.726</v>
       </c>
       <c r="R22" t="n">
         <v>9.6</v>
@@ -4357,13 +4424,13 @@
         <v>42.2</v>
       </c>
       <c r="U22" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V22" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W22" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X22" t="n">
         <v>4.2</v>
@@ -4372,31 +4439,31 @@
         <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.6</v>
+        <v>104.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
         <v>10</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>11</v>
@@ -4414,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO22" t="n">
         <v>6</v>
@@ -4423,10 +4490,10 @@
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS22" t="n">
         <v>4</v>
@@ -4435,7 +4502,7 @@
         <v>12</v>
       </c>
       <c r="AU22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
         <v>12</v>
@@ -4447,10 +4514,10 @@
         <v>24</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>17</v>
@@ -4578,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
@@ -4599,7 +4666,7 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP23" t="n">
         <v>13</v>
@@ -4626,10 +4693,10 @@
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ23" t="n">
         <v>8</v>
@@ -4638,10 +4705,10 @@
         <v>20</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -4670,25 +4737,25 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" t="n">
         <v>40</v>
       </c>
       <c r="F24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>0.656</v>
+        <v>0.667</v>
       </c>
       <c r="H24" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I24" t="n">
         <v>41.1</v>
       </c>
       <c r="J24" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K24" t="n">
         <v>0.492</v>
@@ -4697,10 +4764,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.385</v>
+        <v>0.384</v>
       </c>
       <c r="O24" t="n">
         <v>18.4</v>
@@ -4712,10 +4779,10 @@
         <v>0.792</v>
       </c>
       <c r="R24" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T24" t="n">
         <v>40.9</v>
@@ -4724,7 +4791,7 @@
         <v>26.7</v>
       </c>
       <c r="V24" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W24" t="n">
         <v>6.9</v>
@@ -4736,7 +4803,7 @@
         <v>3.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA24" t="n">
         <v>20.5</v>
@@ -4745,22 +4812,22 @@
         <v>109.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF24" t="n">
         <v>6</v>
       </c>
-      <c r="AF24" t="n">
-        <v>7</v>
-      </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
         <v>2</v>
@@ -4781,7 +4848,7 @@
         <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP24" t="n">
         <v>24</v>
@@ -4793,10 +4860,10 @@
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4811,10 +4878,10 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA24" t="n">
         <v>21</v>
@@ -4823,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4957,7 +5024,7 @@
         <v>16</v>
       </c>
       <c r="AM25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN25" t="n">
         <v>9</v>
@@ -4972,16 +5039,16 @@
         <v>12</v>
       </c>
       <c r="AR25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS25" t="n">
         <v>21</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>20</v>
       </c>
       <c r="AT25" t="n">
         <v>28</v>
       </c>
       <c r="AU25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV25" t="n">
         <v>6</v>
@@ -4993,7 +5060,7 @@
         <v>20</v>
       </c>
       <c r="AY25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ25" t="n">
         <v>9</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" t="n">
         <v>27</v>
       </c>
       <c r="F26" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" t="n">
-        <v>0.443</v>
+        <v>0.45</v>
       </c>
       <c r="H26" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>79.8</v>
       </c>
       <c r="K26" t="n">
         <v>0.457</v>
@@ -5061,10 +5128,10 @@
         <v>6.4</v>
       </c>
       <c r="M26" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.375</v>
+        <v>0.377</v>
       </c>
       <c r="O26" t="n">
         <v>21.9</v>
@@ -5088,61 +5155,61 @@
         <v>19</v>
       </c>
       <c r="V26" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W26" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X26" t="n">
         <v>4.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA26" t="n">
         <v>23</v>
       </c>
       <c r="AB26" t="n">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
       </c>
       <c r="AF26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG26" t="n">
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
         <v>12</v>
       </c>
       <c r="AL26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5154,10 +5221,10 @@
         <v>5</v>
       </c>
       <c r="AR26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS26" t="n">
         <v>22</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>19</v>
       </c>
       <c r="AT26" t="n">
         <v>27</v>
@@ -5175,10 +5242,10 @@
         <v>25</v>
       </c>
       <c r="AY26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -5294,22 +5361,22 @@
         <v>5.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
         <v>4</v>
       </c>
       <c r="AF27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG27" t="n">
         <v>3</v>
       </c>
       <c r="AH27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI27" t="n">
         <v>23</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>24</v>
       </c>
       <c r="AJ27" t="n">
         <v>27</v>
@@ -5324,10 +5391,10 @@
         <v>6</v>
       </c>
       <c r="AN27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP27" t="n">
         <v>27</v>
@@ -5345,7 +5412,7 @@
         <v>17</v>
       </c>
       <c r="AU27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
@@ -5363,10 +5430,10 @@
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB27" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BC27" t="n">
         <v>5</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
       </c>
       <c r="F28" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G28" t="n">
-        <v>0.262</v>
+        <v>0.267</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5425,25 +5492,25 @@
         <v>4.1</v>
       </c>
       <c r="M28" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O28" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P28" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q28" t="n">
         <v>0.767</v>
       </c>
       <c r="R28" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S28" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T28" t="n">
         <v>45.5</v>
@@ -5464,19 +5531,19 @@
         <v>5.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="AC28" t="n">
-        <v>-7.3</v>
+        <v>-7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5488,7 +5555,7 @@
         <v>27</v>
       </c>
       <c r="AH28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5506,7 +5573,7 @@
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO28" t="n">
         <v>24</v>
@@ -5527,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
@@ -5539,19 +5606,19 @@
         <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB28" t="n">
         <v>17</v>
       </c>
       <c r="BC28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -5580,46 +5647,46 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" t="n">
         <v>27</v>
       </c>
       <c r="G29" t="n">
-        <v>0.55</v>
+        <v>0.542</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J29" t="n">
         <v>81.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L29" t="n">
         <v>7.5</v>
       </c>
       <c r="M29" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="N29" t="n">
-        <v>0.409</v>
+        <v>0.41</v>
       </c>
       <c r="O29" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P29" t="n">
         <v>20.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R29" t="n">
         <v>9.699999999999999</v>
@@ -5628,16 +5695,16 @@
         <v>30.7</v>
       </c>
       <c r="T29" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U29" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V29" t="n">
         <v>11.7</v>
       </c>
       <c r="W29" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X29" t="n">
         <v>4</v>
@@ -5649,16 +5716,16 @@
         <v>19.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5670,7 +5737,7 @@
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5691,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP29" t="n">
         <v>28</v>
@@ -5703,13 +5770,13 @@
         <v>25</v>
       </c>
       <c r="AS29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
         <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
@@ -5718,7 +5785,7 @@
         <v>21</v>
       </c>
       <c r="AX29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY29" t="n">
         <v>5</v>
@@ -5733,7 +5800,7 @@
         <v>11</v>
       </c>
       <c r="BC29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" t="n">
         <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>0.645</v>
+        <v>0.639</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5792,7 +5859,7 @@
         <v>12.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O30" t="n">
         <v>21.5</v>
@@ -5801,49 +5868,49 @@
         <v>28.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.756</v>
+        <v>0.758</v>
       </c>
       <c r="R30" t="n">
         <v>11.4</v>
       </c>
       <c r="S30" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T30" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="U30" t="n">
         <v>26.4</v>
       </c>
       <c r="V30" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W30" t="n">
         <v>9</v>
       </c>
       <c r="X30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y30" t="n">
         <v>5.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AB30" t="n">
         <v>105.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AD30" t="n">
         <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
         <v>8</v>
@@ -5870,7 +5937,7 @@
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
         <v>4</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" t="n">
         <v>29</v>
       </c>
       <c r="F31" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="n">
-        <v>0.483</v>
+        <v>0.492</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
@@ -5968,19 +6035,19 @@
         <v>0.44</v>
       </c>
       <c r="L31" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M31" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N31" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="O31" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="P31" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q31" t="n">
         <v>0.792</v>
@@ -5992,7 +6059,7 @@
         <v>29.6</v>
       </c>
       <c r="T31" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U31" t="n">
         <v>18.8</v>
@@ -6007,28 +6074,28 @@
         <v>4.9</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z31" t="n">
         <v>19.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
         <v>16</v>
@@ -6043,13 +6110,13 @@
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN31" t="n">
         <v>26</v>
@@ -6082,10 +6149,10 @@
         <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ31" t="n">
         <v>3</v>
@@ -6097,7 +6164,7 @@
         <v>15</v>
       </c>
       <c r="BC31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-5-2007-08</t>
+          <t>2008-03-05</t>
         </is>
       </c>
     </row>
